--- a/biology/Médecine/Jules_Voisin/Jules_Voisin.xlsx
+++ b/biology/Médecine/Jules_Voisin/Jules_Voisin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Aristide Voisin, né au Mans le 4 octobre 1844 et mort à Paris en avril 1920[1], est un médecin français, spécialiste des maladies mentales et nerveuses.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Aristide Voisin, né au Mans le 4 octobre 1844 et mort à Paris en avril 1920, est un médecin français, spécialiste des maladies mentales et nerveuses.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Benjamin Voisin, médecin au Mans, et d'Anne-Louise Lebailleur, il est docteur en médecine en 1875 après voir été interne en médecine et en chirurgie des hôpitaux de Paris.
-Il est médecin à l'hôpital de Bicêtre en 1879, puis remplace Henri Legrand du Saulle à la Salpêtrière en 1884[2].
+Il est médecin à l'hôpital de Bicêtre en 1879, puis remplace Henri Legrand du Saulle à la Salpêtrière en 1884.
 Il est vice-président de la Société de pathologie comparée. Il a été président de la Société médico-psychologique (1899), vice-président de la Société d'hypnologie et de psychologie (1906), et président du deuxième Congrès d'hypnologie organisé à l'occasion de l'Exposition universelle (1900).
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Chevalier de la Légion d'honneur (1909)[3]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chevalier de la Légion d'honneur (1909)</t>
         </is>
       </c>
     </row>
@@ -574,7 +590,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Contribution à l'étude des arthropathies syphilitiques, Paris, Adrien Delahaye, 1875, lire en ligne sur Gallica.
 L'idiotie : hérédité et dégénérescence mentale, psychologie et éducation de l'idiot, [leçons professées à l'hospice de la Salpêtrière], F. Alcan, Paris, 1893, lire en ligne sur Gallica.
